--- a/data/georgia_census/samegrelo/abasha/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/abasha/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B0A14-267C-4BF5-A449-81DEA5D25000}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0F20F4-91A2-4E1F-BA4A-13280CDDB956}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0284620C-2517-4706-9F0D-9FA288C18FE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D526E2C1-4370-42BA-A61D-B777D0D5FA5A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEF3AE96-E267-4262-BF20-7D979886E79C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C05A3B-9521-4335-85D2-B4D852DB9029}"/>
 </file>